--- a/FINANZAS_T3_Problema_clase_20211111.xlsx
+++ b/FINANZAS_T3_Problema_clase_20211111.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alumno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32E56E70-F66F-4682-9BDC-85ACC338A618}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0864BB25-B56F-4BBB-BF34-656C8690CC57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7545" activeTab="2" xr2:uid="{CA20A628-6FA1-40C9-9B8D-F01FDC76E65C}"/>
   </bookViews>
@@ -642,7 +642,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="79">
   <si>
     <t>PROBLEMA 2</t>
   </si>
@@ -846,6 +846,39 @@
   </si>
   <si>
     <t>Problema 4</t>
+  </si>
+  <si>
+    <t>AA1</t>
+  </si>
+  <si>
+    <t>AA2</t>
+  </si>
+  <si>
+    <t>ALR</t>
+  </si>
+  <si>
+    <t>(E - Rf*1n)</t>
+  </si>
+  <si>
+    <t>V^1</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>V^-1(E-Rf*1n)</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>w(1T)</t>
+  </si>
+  <si>
+    <t>w(2,T)</t>
   </si>
 </sst>
 </file>
@@ -1151,7 +1184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1250,10 +1283,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1272,6 +1301,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5669,11 +5705,11 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
       <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
@@ -10468,19 +10504,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="20" t="s">
         <v>4</v>
       </c>
@@ -10501,29 +10537,29 @@
       <c r="B3" s="23">
         <v>0.25</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="46">
         <v>0.7</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="46">
         <v>0.1</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="46">
         <v>-0.06</v>
       </c>
       <c r="F3" s="23">
         <v>1</v>
       </c>
-      <c r="G3" s="48">
+      <c r="G3" s="46">
         <f t="array" ref="G3:I5">MINVERSE(C3:E5)</f>
         <v>1.5151515151515151</v>
       </c>
-      <c r="H3" s="48">
+      <c r="H3" s="46">
         <v>-0.15151515151515157</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="46">
         <v>0.75757575757575757</v>
       </c>
-      <c r="J3" s="51">
+      <c r="J3" s="49">
         <f>SUM(G3:I3)</f>
         <v>2.1212121212121211</v>
       </c>
@@ -10546,28 +10582,28 @@
       <c r="B4" s="23">
         <v>0.09</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="46">
         <v>0.1</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="46">
         <v>0.5</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="46">
         <v>-0.1</v>
       </c>
       <c r="F4" s="23">
         <v>1</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="46">
         <v>-0.15151515151515155</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="46">
         <v>2.5151515151515151</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="46">
         <v>2.4242424242424243</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="49">
         <f t="shared" ref="J4:J5" si="0">SUM(G4:I4)</f>
         <v>4.7878787878787881</v>
       </c>
@@ -10589,28 +10625,28 @@
       <c r="B5" s="23">
         <v>0.05</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="46">
         <v>-0.06</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="46">
         <v>-0.1</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="46">
         <v>0.1</v>
       </c>
       <c r="F5" s="23">
         <v>1</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="46">
         <v>0.75757575757575757</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="46">
         <v>2.4242424242424239</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="46">
         <v>12.878787878787879</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="49">
         <f t="shared" si="0"/>
         <v>16.060606060606062</v>
       </c>
@@ -10665,17 +10701,17 @@
       <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="52">
+      <c r="B12" s="50">
         <f>($M$3*B11-$M$4)/$M$6</f>
         <v>-1.6807159353348706</v>
       </c>
-      <c r="C12" s="52">
+      <c r="C12" s="50">
         <f>($M$3*C11-$M$4)/$M$6</f>
         <v>20.201501154734384</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
-      <c r="F12" s="52">
+      <c r="F12" s="50">
         <f>($M$3*F11-$M$4)/$M$6</f>
         <v>-0.58660508083140772</v>
       </c>
@@ -10689,17 +10725,17 @@
       <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="50">
         <f>(-$M$4*B11+$M$5)/$M$6</f>
         <v>0.17262702078521919</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="50">
         <f>(-$M$4*C11+$M$5)/$M$6</f>
         <v>-1.5080889145496514</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="52">
+      <c r="F13" s="50">
         <f>(-$M$4*F11+$M$5)/$M$6</f>
         <v>8.8591224018475648E-2</v>
       </c>
@@ -10740,27 +10776,27 @@
       <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="56">
+      <c r="B15" s="54">
         <f t="array" ref="B15:B17">B12*$K$3:$K$5+B13*$J$3:$J$5</f>
         <v>-0.31120092378752834</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="53">
         <f t="array" ref="C15:C17">C12*$K$3:$K$5+C13*$J$3:$J$5</f>
         <v>4.9428406466512627</v>
       </c>
-      <c r="D15" s="57">
+      <c r="D15" s="55">
         <f>C15-B15</f>
         <v>5.2540415704387913</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="55">
         <f t="array" ref="E15:E17">D15:D17*E11+B15:B17</f>
         <v>-4.8498845265588786E-2</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="50">
         <f t="array" ref="F15:F17">F12*K3:K5+F13*J3:J5</f>
         <v>-4.8498845265588703E-2</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="47">
         <f>J3/$M$3</f>
         <v>9.2348284960422147E-2</v>
       </c>
@@ -10777,23 +10813,23 @@
       <c r="A16" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="56">
+      <c r="B16" s="54">
         <v>0.30600461893764408</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="53">
         <v>-0.96420323325634971</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="55">
         <f t="shared" ref="D16:D17" si="1">C16-B16</f>
         <v>-1.2702078521939937</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="55">
         <v>0.24249422632794437</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="50">
         <v>0.24249422632794443</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="47">
         <f>J4/$M$3</f>
         <v>0.20844327176781002</v>
       </c>
@@ -10809,23 +10845,23 @@
       <c r="A17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="54">
         <v>1.005196304849884</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="53">
         <v>-2.9786374133949174</v>
       </c>
-      <c r="D17" s="57">
+      <c r="D17" s="55">
         <f t="shared" si="1"/>
         <v>-3.9838337182448011</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="55">
         <v>0.80600461893764397</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="50">
         <v>0.80600461893764386</v>
       </c>
-      <c r="G17" s="49">
+      <c r="G17" s="47">
         <f>J5/$M$3</f>
         <v>0.69920844327176779</v>
       </c>
@@ -10839,32 +10875,32 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="50">
+      <c r="B18" s="48">
         <f>SUM(B15:B17)</f>
         <v>0.99999999999999978</v>
       </c>
-      <c r="C18" s="50">
+      <c r="C18" s="48">
         <f>SUM(C15:C17)</f>
         <v>0.99999999999999556</v>
       </c>
-      <c r="D18" s="50">
+      <c r="D18" s="48">
         <f>SUM(D15:D17)</f>
         <v>-3.5527136788005009E-15</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50">
+      <c r="E18" s="48"/>
+      <c r="F18" s="48">
         <f>SUM(F15:F17)</f>
         <v>0.99999999999999956</v>
       </c>
-      <c r="G18" s="50">
+      <c r="G18" s="48">
         <f>SUM(G15:G17)</f>
         <v>1</v>
       </c>
-      <c r="H18" s="50">
+      <c r="H18" s="48">
         <f>SUM(H15:H17)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="50">
+      <c r="I18" s="48">
         <f>SUM(I15:I17)</f>
         <v>0.99999999999999978</v>
       </c>
@@ -10873,11 +10909,11 @@
       <c r="A19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="52">
         <f t="array" ref="B19">MMULT(TRANSPOSE(B15:B17),$B$3:$B$5)</f>
         <v>8.3266726846886741E-17</v>
       </c>
-      <c r="C19" s="54">
+      <c r="C19" s="52">
         <f t="array" ref="C19">MMULT(TRANSPOSE(C15:C17),$B$3:$B$5)</f>
         <v>0.99999999999999833</v>
       </c>
@@ -10887,7 +10923,7 @@
         <f t="array" ref="F19">MMULT(TRANSPOSE(F15:F17),$B$3:$B$5)</f>
         <v>5.0000000000000017E-2</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="50">
         <f t="array" ref="G19">MMULT(TRANSPOSE(G15:G17),B3:B5)</f>
         <v>7.6807387862796839E-2</v>
       </c>
@@ -10904,7 +10940,7 @@
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
-      <c r="F20" s="53">
+      <c r="F20" s="51">
         <f>F12*F11+F13</f>
         <v>5.9260969976905262E-2</v>
       </c>
@@ -10922,7 +10958,7 @@
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="53">
+      <c r="F21" s="51">
         <f>SQRT(F20)</f>
         <v>0.24343576149963106</v>
       </c>
@@ -11021,17 +11057,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C801F8EB-EF47-4A04-AECF-12CA971BB643}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="59">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.05</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="24">
+        <f t="array" ref="F4:G5">MINVERSE(C4:D5)</f>
+        <v>25.806451612903224</v>
+      </c>
+      <c r="G4" s="24">
+        <v>-19.354838709677416</v>
+      </c>
+      <c r="H4" s="23">
+        <f>B4-$B$6</f>
+        <v>0.08</v>
+      </c>
+      <c r="I4" s="60">
+        <f t="array" ref="I4:I5">MMULT(F4:G5,H4:H5)</f>
+        <v>1.2903225806451615</v>
+      </c>
+      <c r="J4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K4">
+        <f t="array" ref="K4">MMULT(TRANSPOSE(H4:H5),I4:I5)</f>
+        <v>0.14451612903225805</v>
+      </c>
+      <c r="L4" s="58">
+        <f>I4/$K$4</f>
+        <v>8.9285714285714306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="23">
+        <v>0.06</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>-19.35483870967742</v>
+      </c>
+      <c r="G5" s="24">
+        <v>64.516129032258064</v>
+      </c>
+      <c r="H5" s="23">
+        <f>B5-$B$6</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="I5" s="60">
+        <v>1.0322580645161283</v>
+      </c>
+      <c r="L5" s="58">
+        <f>I5/$K$4</f>
+        <v>7.1428571428571388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>0.02</v>
+      </c>
+      <c r="I6" s="17">
+        <f>SUM(I4:I5)</f>
+        <v>2.32258064516129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8">
+        <f>I4/$I$6</f>
+        <v>0.55555555555555569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9">
+        <f>I5/$I$6</f>
+        <v>0.4444444444444442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <f>SUM(I8:I9)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
